--- a/Topical/Timeline of Kings and Prophets.xlsx
+++ b/Topical/Timeline of Kings and Prophets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Israel</t>
   </si>
@@ -185,6 +185,27 @@
   <si>
     <t>Jeremiah</t>
   </si>
+  <si>
+    <t>Obadiah</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
+  <si>
+    <t>Haggai</t>
+  </si>
+  <si>
+    <t>Malachi</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Hosea</t>
+  </si>
 </sst>
 </file>
 
@@ -219,14 +240,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,10 +249,19 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,56 +564,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:L736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A443" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="8.88671875" style="5"/>
+    <col min="2" max="11" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1050</v>
       </c>
@@ -597,217 +627,245 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3-1</f>
         <v>1049</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0">A4-1</f>
         <v>1048</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1046</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1038</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1035</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1034</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1033</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -928,70 +986,70 @@
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>997</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>996</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>995</v>
@@ -1000,164 +1058,174 @@
       <c r="D58" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>994</v>
       </c>
       <c r="B59" s="4"/>
       <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
       <c r="B60" s="4"/>
       <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
       <c r="B61" s="4"/>
       <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>991</v>
       </c>
       <c r="B62" s="4"/>
       <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
       <c r="B63" s="4"/>
       <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
       <c r="B64" s="4"/>
       <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>988</v>
       </c>
       <c r="B65" s="4"/>
       <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>987</v>
       </c>
       <c r="B66" s="4"/>
       <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>986</v>
       </c>
       <c r="B67" s="4"/>
       <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>985</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ref="A69:A132" si="1">A68-1</f>
         <v>984</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>983</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>982</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>981</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>979</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>978</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>976</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>974</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>973</v>
@@ -1460,7 +1528,7 @@
       </c>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>930</v>
@@ -1600,7 +1668,7 @@
       <c r="B139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>913</v>
@@ -1626,7 +1694,7 @@
       <c r="B142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>910</v>
@@ -1641,7 +1709,7 @@
         <f t="shared" si="2"/>
         <v>909</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="4"/>
@@ -1829,7 +1897,7 @@
         <f t="shared" si="2"/>
         <v>886</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="4"/>
@@ -1839,7 +1907,7 @@
         <f t="shared" si="2"/>
         <v>885</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="4"/>
@@ -1946,7 +2014,7 @@
       <c r="B180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>872</v>
@@ -2103,12 +2171,12 @@
       <c r="B199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>853</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F200" s="4" t="s">
@@ -2210,7 +2278,7 @@
       <c r="B211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>841</v>
@@ -2218,7 +2286,7 @@
       <c r="B212" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="4" t="s">
@@ -2265,7 +2333,7 @@
       <c r="B217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>835</v>
@@ -2583,7 +2651,7 @@
       <c r="B256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>796</v>
@@ -2617,7 +2685,7 @@
       <c r="B260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" ref="A261:A324" si="4">A260-1</f>
         <v>792</v>
@@ -2637,12 +2705,15 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>790</v>
       </c>
       <c r="B263" s="4"/>
+      <c r="D263" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
     </row>
@@ -2846,7 +2917,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>767</v>
@@ -2977,6 +3048,9 @@
       </c>
       <c r="B298" s="4"/>
       <c r="D298" s="4"/>
+      <c r="E298" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
     </row>
@@ -2987,6 +3061,7 @@
       </c>
       <c r="B299" s="4"/>
       <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
     </row>
@@ -2995,10 +3070,11 @@
         <f t="shared" si="4"/>
         <v>753</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
     </row>
@@ -3007,9 +3083,10 @@
         <f t="shared" si="4"/>
         <v>752</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E301" s="4"/>
       <c r="G301" s="4"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -3023,15 +3100,17 @@
       <c r="C302" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
+      <c r="E303" s="4"/>
       <c r="F303" s="4" t="s">
         <v>39</v>
       </c>
@@ -3044,75 +3123,85 @@
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
+      <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>748</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
+      <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>747</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
+      <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>746</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
+      <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="D308" s="3"/>
+      <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>744</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" s="4"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" s="4"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>742</v>
@@ -3121,117 +3210,137 @@
         <v>28</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H311" s="4"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>741</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H312" s="4"/>
+    </row>
+    <row r="313" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>740</v>
       </c>
-      <c r="B313" s="6"/>
+      <c r="B313" s="3"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4" t="s">
+      <c r="D313" s="3"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="H313" s="4"/>
+      <c r="I313" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F313" s="4"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>739</v>
       </c>
-      <c r="B314" s="6"/>
+      <c r="B314" s="3"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="D314" s="3"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H314" s="4"/>
+      <c r="I314" s="4"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>738</v>
       </c>
-      <c r="B315" s="6"/>
+      <c r="B315" s="3"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="D315" s="3"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H315" s="4"/>
+      <c r="I315" s="4"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>737</v>
       </c>
-      <c r="B316" s="6"/>
+      <c r="B316" s="3"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="D316" s="3"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H316" s="4"/>
+      <c r="I316" s="4"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>736</v>
       </c>
-      <c r="B317" s="6"/>
+      <c r="B317" s="3"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="D317" s="3"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
+    </row>
+    <row r="318" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>735</v>
       </c>
-      <c r="B318" s="6"/>
+      <c r="B318" s="3"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="D318" s="3"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H318" s="4"/>
+      <c r="I318" s="4"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>734</v>
       </c>
-      <c r="B319" s="6"/>
+      <c r="B319" s="3"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="D319" s="3"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H319" s="4"/>
+      <c r="I319" s="4"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>733</v>
       </c>
-      <c r="B320" s="6"/>
+      <c r="B320" s="3"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="D320" s="3"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H320" s="4"/>
+      <c r="I320" s="4"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>732</v>
@@ -3239,432 +3348,486 @@
       <c r="B321" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D321" s="4"/>
+      <c r="D321" s="3"/>
       <c r="E321" s="4"/>
       <c r="G321" s="4"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H321" s="4"/>
+      <c r="I321" s="4"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>731</v>
       </c>
       <c r="B322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="D322" s="3"/>
       <c r="E322" s="4"/>
       <c r="G322" s="4"/>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>730</v>
       </c>
       <c r="B323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="D323" s="3"/>
       <c r="E323" s="4"/>
       <c r="G323" s="4"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H323" s="4"/>
+      <c r="I323" s="4"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="B324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="D324" s="3"/>
       <c r="E324" s="4"/>
       <c r="G324" s="4"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H324" s="4"/>
+      <c r="I324" s="4"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" ref="A325:A377" si="5">A324-1</f>
         <v>728</v>
       </c>
       <c r="B325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="D325" s="3"/>
       <c r="E325" s="4"/>
       <c r="G325" s="4"/>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>727</v>
       </c>
       <c r="B326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="D326" s="3"/>
       <c r="E326" s="4"/>
       <c r="G326" s="4"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>726</v>
       </c>
       <c r="B327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="D327" s="3"/>
       <c r="E327" s="4"/>
       <c r="G327" s="4"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H327" s="4"/>
+      <c r="I327" s="4"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>725</v>
       </c>
       <c r="B328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
+      <c r="D328" s="3"/>
       <c r="G328" s="4"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H328" s="4"/>
+      <c r="I328" s="4"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>724</v>
       </c>
       <c r="B329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
+      <c r="D329" s="3"/>
       <c r="G329" s="4"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H329" s="4"/>
+      <c r="I329" s="4"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>723</v>
       </c>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
+      <c r="D330" s="3"/>
       <c r="G330" s="4"/>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H330" s="4"/>
+      <c r="I330" s="4"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>722</v>
       </c>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
+      <c r="D331" s="3"/>
       <c r="G331" s="4"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H331" s="4"/>
+      <c r="I331" s="4"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>721</v>
       </c>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
+      <c r="D332" s="3"/>
       <c r="G332" s="4"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H332" s="4"/>
+      <c r="I332" s="4"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
+      <c r="D333" s="3"/>
       <c r="G333" s="4"/>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H333" s="4"/>
+      <c r="I333" s="4"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>719</v>
       </c>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
+      <c r="D334" s="3"/>
       <c r="G334" s="4"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H334" s="4"/>
+      <c r="I334" s="4"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>718</v>
       </c>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
+      <c r="D335" s="3"/>
       <c r="G335" s="4"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H335" s="4"/>
+      <c r="I335" s="4"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>717</v>
       </c>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
+      <c r="D336" s="3"/>
       <c r="G336" s="4"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H336" s="4"/>
+      <c r="I336" s="4"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>716</v>
       </c>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
+      <c r="D337" s="3"/>
       <c r="G337" s="4"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+    </row>
+    <row r="338" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>715</v>
       </c>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
+      <c r="D338" s="3"/>
       <c r="G338" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H338" s="4"/>
+      <c r="I338" s="4"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>714</v>
       </c>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
+      <c r="D339" s="3"/>
       <c r="G339" s="4"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H339" s="4"/>
+      <c r="I339" s="4"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>713</v>
       </c>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
+      <c r="D340" s="3"/>
       <c r="G340" s="4"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H340" s="4"/>
+      <c r="I340" s="4"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
+      <c r="D341" s="3"/>
       <c r="G341" s="4"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>711</v>
       </c>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
+      <c r="D342" s="3"/>
       <c r="G342" s="4"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>710</v>
       </c>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
+      <c r="D343" s="3"/>
       <c r="G343" s="4"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>709</v>
       </c>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4"/>
+      <c r="D344" s="3"/>
       <c r="G344" s="4"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H344" s="4"/>
+      <c r="I344" s="4"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>708</v>
       </c>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
+      <c r="D345" s="3"/>
       <c r="G345" s="4"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>707</v>
       </c>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
+      <c r="D346" s="3"/>
       <c r="G346" s="4"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
-      <c r="D347" s="4"/>
-      <c r="E347" s="4"/>
+      <c r="D347" s="3"/>
       <c r="G347" s="4"/>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>705</v>
       </c>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
+      <c r="D348" s="3"/>
       <c r="G348" s="4"/>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>704</v>
       </c>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
+      <c r="D349" s="3"/>
       <c r="G349" s="4"/>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>703</v>
       </c>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4"/>
+      <c r="D350" s="3"/>
       <c r="G350" s="4"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>702</v>
       </c>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
+      <c r="D351" s="3"/>
       <c r="G351" s="4"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>701</v>
       </c>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
+      <c r="D352" s="3"/>
       <c r="G352" s="4"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H352" s="4"/>
+      <c r="I352" s="4"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="D353" s="4"/>
+      <c r="D353" s="3"/>
       <c r="G353" s="4"/>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H353" s="4"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>699</v>
       </c>
-      <c r="D354" s="4"/>
+      <c r="D354" s="3"/>
       <c r="G354" s="4"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H354" s="4"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>698</v>
       </c>
-      <c r="D355" s="4"/>
+      <c r="D355" s="3"/>
       <c r="G355" s="4"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H355" s="4"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>697</v>
       </c>
-      <c r="D356" s="4"/>
+      <c r="D356" s="3"/>
       <c r="G356" s="4"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H356" s="4"/>
+    </row>
+    <row r="357" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="D357" s="4"/>
+      <c r="D357" s="3"/>
       <c r="F357" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G357" s="4"/>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H357" s="4"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
-      <c r="D358" s="4"/>
+      <c r="D358" s="3"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H358" s="4"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>694</v>
       </c>
-      <c r="D359" s="4"/>
+      <c r="D359" s="3"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H359" s="4"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>693</v>
       </c>
-      <c r="D360" s="4"/>
+      <c r="D360" s="3"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H360" s="4"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>692</v>
       </c>
-      <c r="D361" s="4"/>
+      <c r="D361" s="3"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H361" s="4"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>691</v>
       </c>
-      <c r="D362" s="4"/>
+      <c r="D362" s="3"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H362" s="4"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>690</v>
       </c>
-      <c r="D363" s="4"/>
+      <c r="D363" s="3"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H363" s="4"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>689</v>
       </c>
-      <c r="D364" s="4"/>
+      <c r="D364" s="3"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H364" s="4"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>688</v>
       </c>
-      <c r="D365" s="4"/>
+      <c r="D365" s="3"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H365" s="4"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>687</v>
       </c>
-      <c r="D366" s="4"/>
+      <c r="D366" s="3"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H366" s="4"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>686</v>
       </c>
-      <c r="D367" s="4"/>
+      <c r="D367" s="3"/>
       <c r="F367" s="4"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H367" s="4"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>685</v>
@@ -3895,77 +4058,77 @@
       </c>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>642</v>
@@ -3974,926 +4137,1150 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" spans="1:6" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="D413" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F413" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H413" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="D423" s="5" t="s">
+      <c r="F423" s="4"/>
+      <c r="H423" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E423" s="5" t="s">
+      <c r="I423" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F423" s="4"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="D426" s="4" t="s">
+      <c r="D426" s="3"/>
+      <c r="F426" s="4"/>
+      <c r="H426" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F426" s="4"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="D427" s="4"/>
+      <c r="D427" s="3"/>
       <c r="F427" s="4"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H427" s="4"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="D428" s="4"/>
+      <c r="D428" s="3"/>
       <c r="F428" s="4"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H428" s="4"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="D429" s="4"/>
+      <c r="D429" s="3"/>
       <c r="F429" s="4"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H429" s="4"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="D430" s="4"/>
+      <c r="D430" s="3"/>
       <c r="F430" s="4"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H430" s="4"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="D431" s="4"/>
+      <c r="D431" s="3"/>
       <c r="F431" s="4"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H431" s="4"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="D432" s="4"/>
+      <c r="D432" s="3"/>
       <c r="F432" s="4"/>
-    </row>
-    <row r="433" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="H432" s="4"/>
+    </row>
+    <row r="433" spans="1:9" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="D433" s="4"/>
-      <c r="E433" s="5" t="s">
+      <c r="D433" s="3"/>
+      <c r="F433" s="4"/>
+      <c r="H433" s="4"/>
+      <c r="I433" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F433" s="4"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="D434" s="4"/>
+      <c r="D434" s="3"/>
       <c r="F434" s="4"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H434" s="4"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="D435" s="4"/>
+      <c r="D435" s="3"/>
       <c r="F435" s="4"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H435" s="4"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="D436" s="4"/>
+      <c r="D436" s="3"/>
       <c r="F436" s="4"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H436" s="4"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="D437" s="4"/>
+      <c r="D437" s="3"/>
       <c r="F437" s="4"/>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H437" s="4"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="D438" s="4"/>
+      <c r="D438" s="3"/>
       <c r="F438" s="4"/>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H438" s="4"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="D439" s="4"/>
+      <c r="D439" s="3"/>
       <c r="F439" s="4"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H439" s="4"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="D440" s="4"/>
+      <c r="D440" s="3"/>
       <c r="F440" s="4"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H440" s="4"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="D441" s="4"/>
+      <c r="D441" s="3"/>
       <c r="F441" s="4"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H441" s="4"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="D442" s="4"/>
+      <c r="D442" s="3"/>
       <c r="F442" s="4"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H442" s="4"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <f t="shared" ref="A443:A506" si="7">A442-1</f>
         <v>610</v>
       </c>
-      <c r="D443" s="4"/>
+      <c r="D443" s="3"/>
       <c r="F443" s="4"/>
-    </row>
-    <row r="444" spans="1:7" ht="46.2" x14ac:dyDescent="0.3">
+      <c r="H443" s="4"/>
+    </row>
+    <row r="444" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <f t="shared" si="7"/>
         <v>609</v>
       </c>
-      <c r="D444" s="4"/>
-      <c r="F444" s="5" t="s">
+      <c r="D444" s="3"/>
+      <c r="F444" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G444" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H444" s="4"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <f t="shared" si="7"/>
         <v>608</v>
       </c>
-      <c r="D445" s="4"/>
+      <c r="D445" s="3"/>
       <c r="G445" s="4"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H445" s="4"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <f t="shared" si="7"/>
         <v>607</v>
       </c>
-      <c r="D446" s="4"/>
+      <c r="D446" s="3"/>
       <c r="G446" s="4"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H446" s="4"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <f t="shared" si="7"/>
         <v>606</v>
       </c>
-      <c r="D447" s="4"/>
+      <c r="D447" s="3"/>
       <c r="G447" s="4"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H447" s="4"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <f t="shared" si="7"/>
         <v>605</v>
       </c>
-      <c r="D448" s="4"/>
+      <c r="D448" s="3"/>
       <c r="G448" s="4"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H448" s="4"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449">
         <f t="shared" si="7"/>
         <v>604</v>
       </c>
-      <c r="D449" s="4"/>
+      <c r="D449" s="3"/>
       <c r="G449" s="4"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H449" s="4"/>
+    </row>
+    <row r="450" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <f t="shared" si="7"/>
         <v>603</v>
       </c>
-      <c r="D450" s="4"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
       <c r="G450" s="4"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H450" s="4"/>
+      <c r="K450" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451">
         <f t="shared" si="7"/>
         <v>602</v>
       </c>
-      <c r="D451" s="4"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
       <c r="G451" s="4"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H451" s="4"/>
+      <c r="K451" s="4"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452">
         <f t="shared" si="7"/>
         <v>601</v>
       </c>
-      <c r="D452" s="4"/>
+      <c r="D452" s="3"/>
+      <c r="E452" s="3"/>
       <c r="G452" s="4"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H452" s="4"/>
+      <c r="K452" s="4"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="D453" s="4"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
       <c r="G453" s="4"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H453" s="4"/>
+      <c r="K453" s="4"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>599</v>
       </c>
-      <c r="D454" s="4"/>
+      <c r="D454" s="3"/>
+      <c r="E454" s="3"/>
       <c r="G454" s="4"/>
-    </row>
-    <row r="455" spans="1:7" ht="51.6" x14ac:dyDescent="0.3">
+      <c r="H454" s="4"/>
+      <c r="K454" s="4"/>
+    </row>
+    <row r="455" spans="1:11" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>598</v>
       </c>
-      <c r="D455" s="4"/>
-      <c r="G455" s="5" t="s">
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
+      <c r="G455" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H455" s="4"/>
+      <c r="K455" s="4"/>
+    </row>
+    <row r="456" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>597</v>
       </c>
-      <c r="D456" s="4"/>
+      <c r="D456" s="3"/>
+      <c r="E456" s="3"/>
       <c r="G456" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H456" s="4"/>
+      <c r="K456" s="4"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>596</v>
       </c>
-      <c r="D457" s="4"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
       <c r="G457" s="4"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H457" s="4"/>
+      <c r="K457" s="4"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>595</v>
       </c>
-      <c r="D458" s="4"/>
+      <c r="D458" s="3"/>
+      <c r="E458" s="3"/>
       <c r="G458" s="4"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H458" s="4"/>
+      <c r="K458" s="4"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>594</v>
       </c>
-      <c r="D459" s="4"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
       <c r="G459" s="4"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H459" s="4"/>
+      <c r="K459" s="4"/>
+    </row>
+    <row r="460" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>593</v>
       </c>
-      <c r="D460" s="4"/>
+      <c r="D460" s="3"/>
+      <c r="E460" s="3"/>
       <c r="G460" s="4"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H460" s="4"/>
+      <c r="J460" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K460" s="4"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>592</v>
       </c>
-      <c r="D461" s="4"/>
+      <c r="D461" s="3"/>
+      <c r="E461" s="3"/>
       <c r="G461" s="4"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H461" s="4"/>
+      <c r="J461" s="4"/>
+      <c r="K461" s="4"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>591</v>
       </c>
-      <c r="D462" s="4"/>
+      <c r="D462" s="3"/>
+      <c r="E462" s="3"/>
       <c r="G462" s="4"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H462" s="4"/>
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>590</v>
       </c>
-      <c r="D463" s="4"/>
+      <c r="D463" s="3"/>
+      <c r="E463" s="3"/>
       <c r="G463" s="4"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H463" s="4"/>
+      <c r="J463" s="4"/>
+      <c r="K463" s="4"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>589</v>
       </c>
-      <c r="D464" s="4"/>
+      <c r="D464" s="3"/>
+      <c r="E464" s="3"/>
       <c r="G464" s="4"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H464" s="4"/>
+      <c r="J464" s="4"/>
+      <c r="K464" s="4"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>588</v>
       </c>
-      <c r="D465" s="4"/>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3"/>
       <c r="G465" s="4"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H465" s="4"/>
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>587</v>
       </c>
-      <c r="D466" s="4"/>
+      <c r="D466" s="3"/>
+      <c r="E466" s="3"/>
       <c r="G466" s="4"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H466" s="4"/>
+      <c r="J466" s="4"/>
+      <c r="K466" s="4"/>
+    </row>
+    <row r="467" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>586</v>
       </c>
-      <c r="D467" s="4"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D467" s="3"/>
+      <c r="E467" s="3"/>
+      <c r="H467" s="4"/>
+      <c r="I467" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J467" s="4"/>
+      <c r="K467" s="4"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>585</v>
       </c>
-      <c r="D468" s="4"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+      <c r="H468" s="4"/>
+      <c r="J468" s="4"/>
+      <c r="K468" s="4"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>584</v>
       </c>
-      <c r="D469" s="4"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D469" s="3"/>
+      <c r="E469" s="3"/>
+      <c r="H469" s="4"/>
+      <c r="J469" s="4"/>
+      <c r="K469" s="4"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>583</v>
       </c>
-      <c r="D470" s="4"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D470" s="3"/>
+      <c r="E470" s="3"/>
+      <c r="H470" s="4"/>
+      <c r="J470" s="4"/>
+      <c r="K470" s="4"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>582</v>
       </c>
-      <c r="D471" s="4"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+      <c r="H471" s="4"/>
+      <c r="J471" s="4"/>
+      <c r="K471" s="4"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>581</v>
       </c>
-      <c r="D472" s="4"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D472" s="3"/>
+      <c r="E472" s="3"/>
+      <c r="H472" s="4"/>
+      <c r="J472" s="4"/>
+      <c r="K472" s="4"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>580</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E473" s="3"/>
+      <c r="J473" s="4"/>
+      <c r="K473" s="4"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474">
         <f t="shared" si="7"/>
         <v>579</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E474" s="3"/>
+      <c r="J474" s="4"/>
+      <c r="K474" s="4"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475">
         <f t="shared" si="7"/>
         <v>578</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E475" s="3"/>
+      <c r="J475" s="4"/>
+      <c r="K475" s="4"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476">
         <f t="shared" si="7"/>
         <v>577</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E476" s="3"/>
+      <c r="J476" s="4"/>
+      <c r="K476" s="4"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477">
         <f t="shared" si="7"/>
         <v>576</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E477" s="3"/>
+      <c r="J477" s="4"/>
+      <c r="K477" s="4"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478">
         <f t="shared" si="7"/>
         <v>575</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E478" s="3"/>
+      <c r="J478" s="4"/>
+      <c r="K478" s="4"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479">
         <f t="shared" si="7"/>
         <v>574</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E479" s="3"/>
+      <c r="J479" s="4"/>
+      <c r="K479" s="4"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480">
         <f t="shared" si="7"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E480" s="3"/>
+      <c r="J480" s="4"/>
+      <c r="K480" s="4"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481">
         <f t="shared" si="7"/>
         <v>572</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E481" s="3"/>
+      <c r="J481" s="4"/>
+      <c r="K481" s="4"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E482" s="3"/>
+      <c r="J482" s="4"/>
+      <c r="K482" s="4"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483">
         <f t="shared" si="7"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E483" s="3"/>
+      <c r="K483" s="4"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484">
         <f t="shared" si="7"/>
         <v>569</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E484" s="3"/>
+      <c r="K484" s="4"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485">
         <f t="shared" si="7"/>
         <v>568</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E485" s="3"/>
+      <c r="K485" s="4"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486">
         <f t="shared" si="7"/>
         <v>567</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E486" s="3"/>
+      <c r="K486" s="4"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487">
         <f t="shared" si="7"/>
         <v>566</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E487" s="3"/>
+      <c r="K487" s="4"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488">
         <f t="shared" si="7"/>
         <v>565</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E488" s="3"/>
+      <c r="K488" s="4"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489">
         <f t="shared" si="7"/>
         <v>564</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E489" s="3"/>
+      <c r="K489" s="4"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490">
         <f t="shared" si="7"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E490" s="3"/>
+      <c r="K490" s="4"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491">
         <f t="shared" si="7"/>
         <v>562</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E491" s="3"/>
+      <c r="K491" s="4"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492">
         <f t="shared" si="7"/>
         <v>561</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E492" s="3"/>
+      <c r="K492" s="4"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493">
         <f t="shared" si="7"/>
         <v>560</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E493" s="3"/>
+      <c r="K493" s="4"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494">
         <f t="shared" si="7"/>
         <v>559</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E494" s="3"/>
+      <c r="K494" s="4"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495">
         <f t="shared" si="7"/>
         <v>558</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E495" s="3"/>
+      <c r="K495" s="4"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496">
         <f t="shared" si="7"/>
         <v>557</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E496" s="3"/>
+      <c r="K496" s="4"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497">
         <f t="shared" si="7"/>
         <v>556</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E497" s="3"/>
+      <c r="K497" s="4"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>555</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E498" s="3"/>
+      <c r="K498" s="4"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>554</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E499" s="3"/>
+      <c r="K499" s="4"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>553</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E500" s="3"/>
+      <c r="K500" s="4"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>552</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E501" s="3"/>
+      <c r="K501" s="4"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>551</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E502" s="3"/>
+      <c r="K502" s="4"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E503" s="3"/>
+      <c r="K503" s="4"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>549</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E504" s="3"/>
+      <c r="K504" s="4"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>548</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E505" s="3"/>
+      <c r="K505" s="4"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>547</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E506" s="3"/>
+      <c r="K506" s="4"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507">
         <f t="shared" ref="A507:A570" si="8">A506-1</f>
         <v>546</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E507" s="3"/>
+      <c r="K507" s="4"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508">
         <f t="shared" si="8"/>
         <v>545</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E508" s="3"/>
+      <c r="K508" s="4"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509">
         <f t="shared" si="8"/>
         <v>544</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E509" s="3"/>
+      <c r="K509" s="4"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510">
         <f t="shared" si="8"/>
         <v>543</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E510" s="3"/>
+      <c r="K510" s="4"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511">
         <f t="shared" si="8"/>
         <v>542</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E511" s="3"/>
+      <c r="K511" s="4"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512">
         <f t="shared" si="8"/>
         <v>541</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E512" s="3"/>
+      <c r="K512" s="4"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513">
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E513" s="3"/>
+      <c r="K513" s="4"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514">
         <f t="shared" si="8"/>
         <v>539</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E514" s="3"/>
+      <c r="K514" s="4"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515">
         <f t="shared" si="8"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E515" s="3"/>
+      <c r="K515" s="4"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516">
         <f t="shared" si="8"/>
         <v>537</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E516" s="3"/>
+      <c r="K516" s="4"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517">
         <f t="shared" si="8"/>
         <v>536</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E517" s="3"/>
+      <c r="K517" s="4"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518">
         <f t="shared" si="8"/>
         <v>535</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519">
         <f t="shared" si="8"/>
         <v>534</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520">
         <f t="shared" si="8"/>
         <v>533</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521">
         <f t="shared" si="8"/>
         <v>532</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522">
         <f t="shared" si="8"/>
         <v>531</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523">
         <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524">
         <f t="shared" si="8"/>
         <v>529</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525">
         <f t="shared" si="8"/>
         <v>528</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526">
         <f t="shared" si="8"/>
         <v>527</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527">
         <f t="shared" si="8"/>
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528">
         <f t="shared" si="8"/>
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529">
         <f t="shared" si="8"/>
         <v>524</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530">
         <f t="shared" si="8"/>
         <v>523</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531">
         <f t="shared" si="8"/>
         <v>522</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532">
         <f t="shared" si="8"/>
         <v>521</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <f t="shared" si="8"/>
         <v>520</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D533" s="3"/>
+      <c r="H533" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I533" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534">
         <f t="shared" si="8"/>
         <v>519</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D534" s="3"/>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535">
         <f t="shared" si="8"/>
         <v>518</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I535" s="4"/>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536">
         <f t="shared" si="8"/>
         <v>517</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537">
         <f t="shared" si="8"/>
         <v>516</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538">
         <f t="shared" si="8"/>
         <v>515</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539">
         <f t="shared" si="8"/>
         <v>514</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540">
         <f t="shared" si="8"/>
         <v>513</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541">
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542">
         <f t="shared" si="8"/>
         <v>511</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543">
         <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544">
         <f t="shared" si="8"/>
         <v>509</v>
@@ -5379,97 +5766,100 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625">
         <f t="shared" si="9"/>
         <v>428</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626">
         <f t="shared" si="9"/>
         <v>427</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627">
         <f t="shared" si="9"/>
         <v>426</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A628">
         <f t="shared" si="9"/>
         <v>425</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H628" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629">
         <f t="shared" si="9"/>
         <v>424</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630">
         <f t="shared" si="9"/>
         <v>423</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631">
         <f t="shared" si="9"/>
         <v>422</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632">
         <f t="shared" si="9"/>
         <v>421</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633">
         <f t="shared" si="9"/>
         <v>420</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634">
         <f t="shared" si="9"/>
         <v>419</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635">
         <f t="shared" ref="A635:A698" si="10">A634-1</f>
         <v>418</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636">
         <f t="shared" si="10"/>
         <v>417</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637">
         <f t="shared" si="10"/>
         <v>416</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638">
         <f t="shared" si="10"/>
         <v>415</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639">
         <f t="shared" si="10"/>
         <v>414</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640">
         <f t="shared" si="10"/>
         <v>413</v>
@@ -6052,15 +6442,35 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="H286:H300"/>
-    <mergeCell ref="D426:D472"/>
-    <mergeCell ref="G338:G366"/>
-    <mergeCell ref="F357:F410"/>
-    <mergeCell ref="F411:F412"/>
-    <mergeCell ref="F413:F443"/>
-    <mergeCell ref="G444:G454"/>
-    <mergeCell ref="G456:G466"/>
+  <mergeCells count="48">
+    <mergeCell ref="H533:H534"/>
+    <mergeCell ref="I533:I535"/>
+    <mergeCell ref="E298:E327"/>
+    <mergeCell ref="F143:F183"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F123:F139"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:B42"/>
+    <mergeCell ref="B43:B82"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="B83:B122"/>
+    <mergeCell ref="B123:B143"/>
+    <mergeCell ref="B145:B166"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="C302:C320"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="B321:B329"/>
+    <mergeCell ref="D286:D300"/>
+    <mergeCell ref="B201:B211"/>
+    <mergeCell ref="B212:B238"/>
+    <mergeCell ref="B239:B254"/>
+    <mergeCell ref="B255:B270"/>
+    <mergeCell ref="B271:B299"/>
+    <mergeCell ref="B302:B310"/>
+    <mergeCell ref="B179:B199"/>
     <mergeCell ref="G181:G204"/>
     <mergeCell ref="F200:F211"/>
     <mergeCell ref="G212:G217"/>
@@ -6069,33 +6479,18 @@
     <mergeCell ref="G261:G312"/>
     <mergeCell ref="F303:F320"/>
     <mergeCell ref="G318:G337"/>
-    <mergeCell ref="C302:C320"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="B321:B329"/>
-    <mergeCell ref="F123:F139"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="F143:F183"/>
-    <mergeCell ref="D308:D367"/>
-    <mergeCell ref="E313:E352"/>
-    <mergeCell ref="D286:D300"/>
-    <mergeCell ref="B201:B211"/>
-    <mergeCell ref="B212:B238"/>
-    <mergeCell ref="B239:B254"/>
-    <mergeCell ref="B255:B270"/>
-    <mergeCell ref="B271:B299"/>
-    <mergeCell ref="B302:B310"/>
-    <mergeCell ref="B83:B122"/>
-    <mergeCell ref="B123:B143"/>
-    <mergeCell ref="B145:B166"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="B179:B199"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B42"/>
-    <mergeCell ref="B43:B82"/>
-    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="G338:G366"/>
+    <mergeCell ref="F357:F410"/>
+    <mergeCell ref="F411:F412"/>
+    <mergeCell ref="F413:F443"/>
+    <mergeCell ref="G444:G454"/>
+    <mergeCell ref="G456:G466"/>
+    <mergeCell ref="H286:H300"/>
+    <mergeCell ref="H308:H367"/>
+    <mergeCell ref="I313:I352"/>
+    <mergeCell ref="H426:H472"/>
+    <mergeCell ref="K450:K517"/>
+    <mergeCell ref="J460:J482"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
